--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H2">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.314108</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N2">
-        <v>3.942324</v>
+        <v>18.404863</v>
       </c>
       <c r="O2">
-        <v>0.05768654525237048</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P2">
-        <v>0.05768654525237048</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q2">
-        <v>5.519204101931998</v>
+        <v>0.9928278397024444</v>
       </c>
       <c r="R2">
-        <v>49.67283691738799</v>
+        <v>8.935450557322</v>
       </c>
       <c r="S2">
-        <v>0.05768654525237048</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="T2">
-        <v>0.05768654525237048</v>
+        <v>0.232605129991722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H3">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>14.736649</v>
       </c>
       <c r="O3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q3">
-        <v>20.63112357318477</v>
+        <v>0.794950518845111</v>
       </c>
       <c r="R3">
-        <v>185.680112158663</v>
+        <v>7.154554669606</v>
       </c>
       <c r="S3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="T3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H4">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0405</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N4">
-        <v>0.1215</v>
+        <v>0.0262</v>
       </c>
       <c r="O4">
-        <v>0.001777863830614383</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P4">
-        <v>0.001777863830614382</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q4">
-        <v>0.1700984745</v>
+        <v>0.001413326977777778</v>
       </c>
       <c r="R4">
-        <v>1.5308862705</v>
+        <v>0.0127199428</v>
       </c>
       <c r="S4">
-        <v>0.001777863830614383</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="T4">
-        <v>0.001777863830614382</v>
+        <v>0.0003311219651992584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H5">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.10639433333333</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N5">
-        <v>48.319183</v>
+        <v>43.778135</v>
       </c>
       <c r="O5">
-        <v>0.7070364426381673</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P5">
-        <v>0.7070364426381672</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q5">
-        <v>67.64624952581342</v>
+        <v>2.361557985965555</v>
       </c>
       <c r="R5">
-        <v>608.8162457323209</v>
+        <v>21.25402187369</v>
       </c>
       <c r="S5">
-        <v>0.7070364426381673</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="T5">
-        <v>0.7070364426381672</v>
+        <v>0.5532787058762761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H6">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4069286666666667</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N6">
-        <v>1.220786</v>
+        <v>1.629906</v>
       </c>
       <c r="O6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q6">
-        <v>1.709085072353555</v>
+        <v>0.08792328706266668</v>
       </c>
       <c r="R6">
-        <v>15.381765651182</v>
+        <v>0.7913095835640001</v>
       </c>
       <c r="S6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="T6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1618313333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.485494</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1830566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.5491699999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.006940543878949493</v>
+      </c>
+      <c r="P7">
+        <v>0.006940543878949492</v>
+      </c>
+      <c r="Q7">
+        <v>0.02962430444222222</v>
+      </c>
+      <c r="R7">
+        <v>0.26661873998</v>
+      </c>
+      <c r="S7">
+        <v>0.006940543878949493</v>
+      </c>
+      <c r="T7">
+        <v>0.006940543878949492</v>
       </c>
     </row>
   </sheetData>
